--- a/Documentation/Project Documentation/Work Breakdown Structure.xlsx
+++ b/Documentation/Project Documentation/Work Breakdown Structure.xlsx
@@ -697,19 +697,19 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>5.3</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>6.1</v>
       </c>
